--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_SANManagement.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_SANManagement.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>C:\\Users\\SSUPRAJA-adm\\Downloads</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>SearchSan</t>
   </si>
@@ -48,23 +45,41 @@
     <t>APT_VoiceService</t>
   </si>
   <si>
-    <t>431224892</t>
-  </si>
-  <si>
-    <t>431444655</t>
-  </si>
-  <si>
-    <t>331444566</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>‪C:\\Users\\SKathiresan-ADM\\Downloads</t>
+  </si>
+  <si>
+    <t>431224374</t>
+  </si>
+  <si>
+    <t>431223935</t>
+  </si>
+  <si>
+    <t>431224368</t>
+  </si>
+  <si>
+    <t>431227264</t>
+  </si>
+  <si>
+    <t>431227259</t>
+  </si>
+  <si>
+    <t>431224831</t>
+  </si>
+  <si>
+    <t>431224375</t>
+  </si>
+  <si>
+    <t>431224370</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +100,12 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +144,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,70 +598,155 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_SANManagement.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_SANManagement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>SearchSan</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_VoiceService</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>‪C:\\Users\\SKathiresan-ADM\\Downloads</t>
   </si>
   <si>
-    <t>431224374</t>
-  </si>
-  <si>
-    <t>431223935</t>
-  </si>
-  <si>
     <t>431224368</t>
   </si>
   <si>
@@ -66,20 +57,17 @@
     <t>431227259</t>
   </si>
   <si>
-    <t>431224831</t>
-  </si>
-  <si>
-    <t>431224375</t>
-  </si>
-  <si>
-    <t>431224370</t>
+    <t>url for the product</t>
+  </si>
+  <si>
+    <t>C:\Users\SKathiresan-ADM\Downloads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +82,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -134,17 +116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:GE4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,162 +419,146 @@
     <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="36.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
-    <col min="13" max="13" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.140625" style="2" collapsed="1"/>
-    <col min="25" max="25" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="38" width="9.140625" style="2" collapsed="1"/>
-    <col min="39" max="39" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="2" collapsed="1"/>
+    <col min="7" max="7" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="9.140625" style="2" collapsed="1"/>
+    <col min="21" max="21" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="9.140625" style="2" collapsed="1"/>
+    <col min="24" max="24" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="27" width="9.140625" style="2" collapsed="1"/>
+    <col min="28" max="28" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="19.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="40" max="41" width="9.140625" style="2" collapsed="1"/>
-    <col min="42" max="42" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="45" width="9.140625" style="2" collapsed="1"/>
-    <col min="46" max="46" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="19.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="59" width="9.140625" style="2" collapsed="1"/>
-    <col min="60" max="60" width="53.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="28.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="82" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="32.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="85" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="30.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="103" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="110" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="36.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="20.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="116" max="116" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="117" max="117" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="118" max="118" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="120" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="121" max="122" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="35.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="127" width="18" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="34.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="37.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="34.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="40.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="137" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="138" max="138" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="38.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="42.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="32.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="145" max="145" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="146" max="149" width="9.140625" style="2" collapsed="1"/>
-    <col min="150" max="150" width="29.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="159" width="9.140625" style="2" collapsed="1"/>
-    <col min="160" max="160" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="162" max="162" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="165" max="165" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="166" max="166" width="50" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="169" max="169" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="170" max="170" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="173" max="173" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="174" max="174" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="175" max="175" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="44.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="177" max="177" width="42.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="178" max="178" width="46.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="179" width="48.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="180" width="49" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="181" max="181" width="47.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="182" max="183" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="185" max="186" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="187" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="42" max="42" width="53.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="28.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="32.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="30.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="85" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="92" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="36.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="20.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="102" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="104" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="35.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="109" width="18" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="34.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="37.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="113" max="113" width="34.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="116" max="116" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="118" max="118" width="40.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="120" max="120" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="121" max="121" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="38.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="42.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="32.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="131" width="9.140625" style="2" collapsed="1"/>
+    <col min="132" max="132" width="29.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="133" max="141" width="9.140625" style="2" collapsed="1"/>
+    <col min="142" max="142" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="145" max="145" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="146" max="146" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="148" max="148" width="50" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="153" max="153" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="155" max="155" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="156" max="156" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="44.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="42.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="160" max="160" width="46.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="48.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="162" max="162" width="49" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="47.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="165" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="168" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="169" max="169" width="9.140625" style="2" collapsed="1"/>
+    <col min="170" max="187" width="9.140625" style="2"/>
+    <col min="188" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -614,138 +579,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_SANManagement.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_SANManagement.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="SANMgmt" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>SearchSan</t>
   </si>
@@ -48,28 +49,31 @@
     <t>url for the product</t>
   </si>
   <si>
-    <t>C:\Users\SKathiresan-ADM\Downloads</t>
-  </si>
-  <si>
-    <t>431226409</t>
-  </si>
-  <si>
-    <t>431225266</t>
-  </si>
-  <si>
-    <t>431227846</t>
-  </si>
-  <si>
-    <t>431224735</t>
-  </si>
-  <si>
-    <t>431228703</t>
-  </si>
-  <si>
-    <t>431225629</t>
-  </si>
-  <si>
-    <t>431227849</t>
+    <t>Columns for which unique data to be provided</t>
+  </si>
+  <si>
+    <t>C:\Users\SSUPRAJA-adm\Downloads</t>
+  </si>
+  <si>
+    <t>431227324</t>
+  </si>
+  <si>
+    <t>431224373</t>
+  </si>
+  <si>
+    <t>431223934</t>
+  </si>
+  <si>
+    <t>431227259</t>
+  </si>
+  <si>
+    <t>431224831</t>
+  </si>
+  <si>
+    <t>431224375</t>
+  </si>
+  <si>
+    <t>431224382</t>
   </si>
 </sst>
 </file>
@@ -99,7 +103,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +145,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +586,10 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -590,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -607,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
@@ -624,10 +638,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
@@ -641,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -658,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>0</v>
@@ -675,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>0</v>
@@ -692,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
@@ -705,4 +719,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>